--- a/python-codes/trading/angel_broking/text-documents/fo_mktlots.xlsx
+++ b/python-codes/trading/angel_broking/text-documents/fo_mktlots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs_code\visualstudiocodes.github.io-1\python-codes\trading\angel_broking\text-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D0997-08CA-43C2-B97C-FC23E6D02759}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3069FDD1-6337-4880-9BE5-EE5233E0C155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5776,7 +5776,7 @@
     <t>CLOSE</t>
   </si>
   <si>
-    <t>LTP</t>
+    <t>VOLUME</t>
   </si>
 </sst>
 </file>
@@ -26888,7 +26888,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26926,6 +26926,21 @@
       <c r="B2" s="2">
         <v>22</v>
       </c>
+      <c r="C2">
+        <v>1712.85</v>
+      </c>
+      <c r="D2">
+        <v>1715</v>
+      </c>
+      <c r="E2">
+        <v>1705.5</v>
+      </c>
+      <c r="F2">
+        <v>1708.6</v>
+      </c>
+      <c r="G2">
+        <v>23336</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -26934,6 +26949,21 @@
       <c r="B3" s="2">
         <v>25</v>
       </c>
+      <c r="C3">
+        <v>1712.85</v>
+      </c>
+      <c r="D3">
+        <v>1715</v>
+      </c>
+      <c r="E3">
+        <v>1705.5</v>
+      </c>
+      <c r="F3">
+        <v>1708.6</v>
+      </c>
+      <c r="G3">
+        <v>23336</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -26942,6 +26972,21 @@
       <c r="B4" s="2">
         <v>3563</v>
       </c>
+      <c r="C4">
+        <v>1712.85</v>
+      </c>
+      <c r="D4">
+        <v>1715</v>
+      </c>
+      <c r="E4">
+        <v>1705.5</v>
+      </c>
+      <c r="F4">
+        <v>1708.6</v>
+      </c>
+      <c r="G4">
+        <v>23336</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -26950,6 +26995,21 @@
       <c r="B5" s="2">
         <v>15083</v>
       </c>
+      <c r="C5">
+        <v>1712.85</v>
+      </c>
+      <c r="D5">
+        <v>1715</v>
+      </c>
+      <c r="E5">
+        <v>1705.5</v>
+      </c>
+      <c r="F5">
+        <v>1708.6</v>
+      </c>
+      <c r="G5">
+        <v>23336</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -26958,6 +27018,21 @@
       <c r="B6" s="2">
         <v>10217</v>
       </c>
+      <c r="C6">
+        <v>1712.85</v>
+      </c>
+      <c r="D6">
+        <v>1715</v>
+      </c>
+      <c r="E6">
+        <v>1705.5</v>
+      </c>
+      <c r="F6">
+        <v>1708.6</v>
+      </c>
+      <c r="G6">
+        <v>23336</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -26966,6 +27041,21 @@
       <c r="B7" s="2">
         <v>1270</v>
       </c>
+      <c r="C7">
+        <v>1712.85</v>
+      </c>
+      <c r="D7">
+        <v>1715</v>
+      </c>
+      <c r="E7">
+        <v>1705.5</v>
+      </c>
+      <c r="F7">
+        <v>1708.6</v>
+      </c>
+      <c r="G7">
+        <v>23336</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -26974,6 +27064,21 @@
       <c r="B8" s="2">
         <v>157</v>
       </c>
+      <c r="C8">
+        <v>1712.85</v>
+      </c>
+      <c r="D8">
+        <v>1715</v>
+      </c>
+      <c r="E8">
+        <v>1705.5</v>
+      </c>
+      <c r="F8">
+        <v>1708.6</v>
+      </c>
+      <c r="G8">
+        <v>23336</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -26982,6 +27087,21 @@
       <c r="B9" s="2">
         <v>236</v>
       </c>
+      <c r="C9">
+        <v>1712.85</v>
+      </c>
+      <c r="D9">
+        <v>1715</v>
+      </c>
+      <c r="E9">
+        <v>1705.5</v>
+      </c>
+      <c r="F9">
+        <v>1708.6</v>
+      </c>
+      <c r="G9">
+        <v>23336</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -26990,6 +27110,21 @@
       <c r="B10" s="2">
         <v>6066</v>
       </c>
+      <c r="C10">
+        <v>1712.85</v>
+      </c>
+      <c r="D10">
+        <v>1715</v>
+      </c>
+      <c r="E10">
+        <v>1705.5</v>
+      </c>
+      <c r="F10">
+        <v>1708.6</v>
+      </c>
+      <c r="G10">
+        <v>23336</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -26998,6 +27133,21 @@
       <c r="B11" s="2">
         <v>5900</v>
       </c>
+      <c r="C11">
+        <v>1712.85</v>
+      </c>
+      <c r="D11">
+        <v>1715</v>
+      </c>
+      <c r="E11">
+        <v>1705.5</v>
+      </c>
+      <c r="F11">
+        <v>1708.6</v>
+      </c>
+      <c r="G11">
+        <v>23336</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -27006,6 +27156,21 @@
       <c r="B12" s="2">
         <v>16669</v>
       </c>
+      <c r="C12">
+        <v>1712.85</v>
+      </c>
+      <c r="D12">
+        <v>1715</v>
+      </c>
+      <c r="E12">
+        <v>1705.5</v>
+      </c>
+      <c r="F12">
+        <v>1708.6</v>
+      </c>
+      <c r="G12">
+        <v>23336</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -27014,6 +27179,21 @@
       <c r="B13" s="2">
         <v>16675</v>
       </c>
+      <c r="C13">
+        <v>1712.85</v>
+      </c>
+      <c r="D13">
+        <v>1715</v>
+      </c>
+      <c r="E13">
+        <v>1705.5</v>
+      </c>
+      <c r="F13">
+        <v>1708.6</v>
+      </c>
+      <c r="G13">
+        <v>23336</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -27022,6 +27202,21 @@
       <c r="B14" s="2">
         <v>305</v>
       </c>
+      <c r="C14">
+        <v>1712.85</v>
+      </c>
+      <c r="D14">
+        <v>1715</v>
+      </c>
+      <c r="E14">
+        <v>1705.5</v>
+      </c>
+      <c r="F14">
+        <v>1708.6</v>
+      </c>
+      <c r="G14">
+        <v>23336</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -27030,6 +27225,21 @@
       <c r="B15" s="2">
         <v>317</v>
       </c>
+      <c r="C15">
+        <v>1712.85</v>
+      </c>
+      <c r="D15">
+        <v>1715</v>
+      </c>
+      <c r="E15">
+        <v>1705.5</v>
+      </c>
+      <c r="F15">
+        <v>1708.6</v>
+      </c>
+      <c r="G15">
+        <v>23336</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -27038,685 +27248,1975 @@
       <c r="B16" s="2">
         <v>2263</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1712.85</v>
+      </c>
+      <c r="D16">
+        <v>1715</v>
+      </c>
+      <c r="E16">
+        <v>1705.5</v>
+      </c>
+      <c r="F16">
+        <v>1708.6</v>
+      </c>
+      <c r="G16">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>4668</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1712.85</v>
+      </c>
+      <c r="D17">
+        <v>1715</v>
+      </c>
+      <c r="E17">
+        <v>1705.5</v>
+      </c>
+      <c r="F17">
+        <v>1708.6</v>
+      </c>
+      <c r="G17">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>383</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1712.85</v>
+      </c>
+      <c r="D18">
+        <v>1715</v>
+      </c>
+      <c r="E18">
+        <v>1705.5</v>
+      </c>
+      <c r="F18">
+        <v>1708.6</v>
+      </c>
+      <c r="G18">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>404</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1712.85</v>
+      </c>
+      <c r="D19">
+        <v>1715</v>
+      </c>
+      <c r="E19">
+        <v>1705.5</v>
+      </c>
+      <c r="F19">
+        <v>1708.6</v>
+      </c>
+      <c r="G19">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>10604</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1712.85</v>
+      </c>
+      <c r="D20">
+        <v>1715</v>
+      </c>
+      <c r="E20">
+        <v>1705.5</v>
+      </c>
+      <c r="F20">
+        <v>1708.6</v>
+      </c>
+      <c r="G20">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="2">
         <v>11373</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1712.85</v>
+      </c>
+      <c r="D21">
+        <v>1715</v>
+      </c>
+      <c r="E21">
+        <v>1705.5</v>
+      </c>
+      <c r="F21">
+        <v>1708.6</v>
+      </c>
+      <c r="G21">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2">
         <v>2181</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1712.85</v>
+      </c>
+      <c r="D22">
+        <v>1715</v>
+      </c>
+      <c r="E22">
+        <v>1705.5</v>
+      </c>
+      <c r="F22">
+        <v>1708.6</v>
+      </c>
+      <c r="G22">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="2">
         <v>526</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1712.85</v>
+      </c>
+      <c r="D23">
+        <v>1715</v>
+      </c>
+      <c r="E23">
+        <v>1705.5</v>
+      </c>
+      <c r="F23">
+        <v>1708.6</v>
+      </c>
+      <c r="G23">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="2">
         <v>547</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1712.85</v>
+      </c>
+      <c r="D24">
+        <v>1715</v>
+      </c>
+      <c r="E24">
+        <v>1705.5</v>
+      </c>
+      <c r="F24">
+        <v>1708.6</v>
+      </c>
+      <c r="G24">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="2">
         <v>685</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1712.85</v>
+      </c>
+      <c r="D25">
+        <v>1715</v>
+      </c>
+      <c r="E25">
+        <v>1705.5</v>
+      </c>
+      <c r="F25">
+        <v>1708.6</v>
+      </c>
+      <c r="G25">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="2">
         <v>694</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1712.85</v>
+      </c>
+      <c r="D26">
+        <v>1715</v>
+      </c>
+      <c r="E26">
+        <v>1705.5</v>
+      </c>
+      <c r="F26">
+        <v>1708.6</v>
+      </c>
+      <c r="G26">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="2">
         <v>20374</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1712.85</v>
+      </c>
+      <c r="D27">
+        <v>1715</v>
+      </c>
+      <c r="E27">
+        <v>1705.5</v>
+      </c>
+      <c r="F27">
+        <v>1708.6</v>
+      </c>
+      <c r="G27">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="2">
         <v>15141</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1712.85</v>
+      </c>
+      <c r="D28">
+        <v>1715</v>
+      </c>
+      <c r="E28">
+        <v>1705.5</v>
+      </c>
+      <c r="F28">
+        <v>1708.6</v>
+      </c>
+      <c r="G28">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>772</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1712.85</v>
+      </c>
+      <c r="D29">
+        <v>1715</v>
+      </c>
+      <c r="E29">
+        <v>1705.5</v>
+      </c>
+      <c r="F29">
+        <v>1708.6</v>
+      </c>
+      <c r="G29">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="2">
         <v>10940</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1712.85</v>
+      </c>
+      <c r="D30">
+        <v>1715</v>
+      </c>
+      <c r="E30">
+        <v>1705.5</v>
+      </c>
+      <c r="F30">
+        <v>1708.6</v>
+      </c>
+      <c r="G30">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="2">
         <v>14732</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>1712.85</v>
+      </c>
+      <c r="D31">
+        <v>1715</v>
+      </c>
+      <c r="E31">
+        <v>1705.5</v>
+      </c>
+      <c r="F31">
+        <v>1708.6</v>
+      </c>
+      <c r="G31">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1442</v>
       </c>
       <c r="B32" s="2">
         <v>19913</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1712.85</v>
+      </c>
+      <c r="D32">
+        <v>1715</v>
+      </c>
+      <c r="E32">
+        <v>1705.5</v>
+      </c>
+      <c r="F32">
+        <v>1708.6</v>
+      </c>
+      <c r="G32">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="2">
         <v>881</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1712.85</v>
+      </c>
+      <c r="D33">
+        <v>1715</v>
+      </c>
+      <c r="E33">
+        <v>1705.5</v>
+      </c>
+      <c r="F33">
+        <v>1708.6</v>
+      </c>
+      <c r="G33">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
       <c r="B34" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1712.85</v>
+      </c>
+      <c r="D34">
+        <v>1715</v>
+      </c>
+      <c r="E34">
+        <v>1705.5</v>
+      </c>
+      <c r="F34">
+        <v>1708.6</v>
+      </c>
+      <c r="G34">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="2">
         <v>4717</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>1712.85</v>
+      </c>
+      <c r="D35">
+        <v>1715</v>
+      </c>
+      <c r="E35">
+        <v>1705.5</v>
+      </c>
+      <c r="F35">
+        <v>1708.6</v>
+      </c>
+      <c r="G35">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>848</v>
       </c>
       <c r="B36" s="2">
         <v>1153</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1712.85</v>
+      </c>
+      <c r="D36">
+        <v>1715</v>
+      </c>
+      <c r="E36">
+        <v>1705.5</v>
+      </c>
+      <c r="F36">
+        <v>1708.6</v>
+      </c>
+      <c r="G36">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="2">
         <v>10099</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1712.85</v>
+      </c>
+      <c r="D37">
+        <v>1715</v>
+      </c>
+      <c r="E37">
+        <v>1705.5</v>
+      </c>
+      <c r="F37">
+        <v>1708.6</v>
+      </c>
+      <c r="G37">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="2">
         <v>1232</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>1712.85</v>
+      </c>
+      <c r="D38">
+        <v>1715</v>
+      </c>
+      <c r="E38">
+        <v>1705.5</v>
+      </c>
+      <c r="F38">
+        <v>1708.6</v>
+      </c>
+      <c r="G38">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="2">
         <v>2303</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>1712.85</v>
+      </c>
+      <c r="D39">
+        <v>1715</v>
+      </c>
+      <c r="E39">
+        <v>1705.5</v>
+      </c>
+      <c r="F39">
+        <v>1708.6</v>
+      </c>
+      <c r="G39">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="2">
         <v>9819</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1712.85</v>
+      </c>
+      <c r="D40">
+        <v>1715</v>
+      </c>
+      <c r="E40">
+        <v>1705.5</v>
+      </c>
+      <c r="F40">
+        <v>1708.6</v>
+      </c>
+      <c r="G40">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="2">
         <v>7229</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>1712.85</v>
+      </c>
+      <c r="D41">
+        <v>1715</v>
+      </c>
+      <c r="E41">
+        <v>1705.5</v>
+      </c>
+      <c r="F41">
+        <v>1708.6</v>
+      </c>
+      <c r="G41">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="2">
         <v>1330</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>1712.85</v>
+      </c>
+      <c r="D42">
+        <v>1715</v>
+      </c>
+      <c r="E42">
+        <v>1705.5</v>
+      </c>
+      <c r="F42">
+        <v>1708.6</v>
+      </c>
+      <c r="G42">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="2">
         <v>4244</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>1712.85</v>
+      </c>
+      <c r="D43">
+        <v>1715</v>
+      </c>
+      <c r="E43">
+        <v>1705.5</v>
+      </c>
+      <c r="F43">
+        <v>1708.6</v>
+      </c>
+      <c r="G43">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="2">
         <v>1333</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>1712.85</v>
+      </c>
+      <c r="D44">
+        <v>1715</v>
+      </c>
+      <c r="E44">
+        <v>1705.5</v>
+      </c>
+      <c r="F44">
+        <v>1708.6</v>
+      </c>
+      <c r="G44">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
       <c r="B45" s="2">
         <v>467</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>1712.85</v>
+      </c>
+      <c r="D45">
+        <v>1715</v>
+      </c>
+      <c r="E45">
+        <v>1705.5</v>
+      </c>
+      <c r="F45">
+        <v>1708.6</v>
+      </c>
+      <c r="G45">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="2">
         <v>1348</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>1712.85</v>
+      </c>
+      <c r="D46">
+        <v>1715</v>
+      </c>
+      <c r="E46">
+        <v>1705.5</v>
+      </c>
+      <c r="F46">
+        <v>1708.6</v>
+      </c>
+      <c r="G46">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="2">
         <v>1363</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>1712.85</v>
+      </c>
+      <c r="D47">
+        <v>1715</v>
+      </c>
+      <c r="E47">
+        <v>1705.5</v>
+      </c>
+      <c r="F47">
+        <v>1708.6</v>
+      </c>
+      <c r="G47">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="2">
         <v>1394</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>1712.85</v>
+      </c>
+      <c r="D48">
+        <v>1715</v>
+      </c>
+      <c r="E48">
+        <v>1705.5</v>
+      </c>
+      <c r="F48">
+        <v>1708.6</v>
+      </c>
+      <c r="G48">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="2">
         <v>4963</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>1712.85</v>
+      </c>
+      <c r="D49">
+        <v>1715</v>
+      </c>
+      <c r="E49">
+        <v>1705.5</v>
+      </c>
+      <c r="F49">
+        <v>1708.6</v>
+      </c>
+      <c r="G49">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
       <c r="B50" s="2">
         <v>21770</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>1712.85</v>
+      </c>
+      <c r="D50">
+        <v>1715</v>
+      </c>
+      <c r="E50">
+        <v>1705.5</v>
+      </c>
+      <c r="F50">
+        <v>1708.6</v>
+      </c>
+      <c r="G50">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
       <c r="B51" s="2">
         <v>18652</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>1712.85</v>
+      </c>
+      <c r="D51">
+        <v>1715</v>
+      </c>
+      <c r="E51">
+        <v>1705.5</v>
+      </c>
+      <c r="F51">
+        <v>1708.6</v>
+      </c>
+      <c r="G51">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="2">
         <v>11195</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>1712.85</v>
+      </c>
+      <c r="D52">
+        <v>1715</v>
+      </c>
+      <c r="E52">
+        <v>1705.5</v>
+      </c>
+      <c r="F52">
+        <v>1708.6</v>
+      </c>
+      <c r="G52">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>98</v>
       </c>
       <c r="B53" s="2">
         <v>5258</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>1712.85</v>
+      </c>
+      <c r="D53">
+        <v>1715</v>
+      </c>
+      <c r="E53">
+        <v>1705.5</v>
+      </c>
+      <c r="F53">
+        <v>1708.6</v>
+      </c>
+      <c r="G53">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>99</v>
       </c>
       <c r="B54" s="2">
         <v>29135</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>1712.85</v>
+      </c>
+      <c r="D54">
+        <v>1715</v>
+      </c>
+      <c r="E54">
+        <v>1705.5</v>
+      </c>
+      <c r="F54">
+        <v>1708.6</v>
+      </c>
+      <c r="G54">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>100</v>
       </c>
       <c r="B55" s="2">
         <v>1594</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>1712.85</v>
+      </c>
+      <c r="D55">
+        <v>1715</v>
+      </c>
+      <c r="E55">
+        <v>1705.5</v>
+      </c>
+      <c r="F55">
+        <v>1708.6</v>
+      </c>
+      <c r="G55">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="2">
         <v>1624</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>1712.85</v>
+      </c>
+      <c r="D56">
+        <v>1715</v>
+      </c>
+      <c r="E56">
+        <v>1705.5</v>
+      </c>
+      <c r="F56">
+        <v>1708.6</v>
+      </c>
+      <c r="G56">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="2">
         <v>13611</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>1712.85</v>
+      </c>
+      <c r="D57">
+        <v>1715</v>
+      </c>
+      <c r="E57">
+        <v>1705.5</v>
+      </c>
+      <c r="F57">
+        <v>1708.6</v>
+      </c>
+      <c r="G57">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>105</v>
       </c>
       <c r="B58" s="2">
         <v>1660</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>1712.85</v>
+      </c>
+      <c r="D58">
+        <v>1715</v>
+      </c>
+      <c r="E58">
+        <v>1705.5</v>
+      </c>
+      <c r="F58">
+        <v>1708.6</v>
+      </c>
+      <c r="G58">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>108</v>
       </c>
       <c r="B59" s="2">
         <v>11723</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>1712.85</v>
+      </c>
+      <c r="D59">
+        <v>1715</v>
+      </c>
+      <c r="E59">
+        <v>1705.5</v>
+      </c>
+      <c r="F59">
+        <v>1708.6</v>
+      </c>
+      <c r="G59">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>110</v>
       </c>
       <c r="B60" s="2">
         <v>1922</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>1712.85</v>
+      </c>
+      <c r="D60">
+        <v>1715</v>
+      </c>
+      <c r="E60">
+        <v>1705.5</v>
+      </c>
+      <c r="F60">
+        <v>1708.6</v>
+      </c>
+      <c r="G60">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>446</v>
       </c>
       <c r="B61" s="2">
         <v>9480</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>1712.85</v>
+      </c>
+      <c r="D61">
+        <v>1715</v>
+      </c>
+      <c r="E61">
+        <v>1705.5</v>
+      </c>
+      <c r="F61">
+        <v>1708.6</v>
+      </c>
+      <c r="G61">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>115</v>
       </c>
       <c r="B62" s="2">
         <v>11483</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>1712.85</v>
+      </c>
+      <c r="D62">
+        <v>1715</v>
+      </c>
+      <c r="E62">
+        <v>1705.5</v>
+      </c>
+      <c r="F62">
+        <v>1708.6</v>
+      </c>
+      <c r="G62">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>116</v>
       </c>
       <c r="B63" s="2">
         <v>17818</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>1712.85</v>
+      </c>
+      <c r="D63">
+        <v>1715</v>
+      </c>
+      <c r="E63">
+        <v>1705.5</v>
+      </c>
+      <c r="F63">
+        <v>1708.6</v>
+      </c>
+      <c r="G63">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>119</v>
       </c>
       <c r="B64" s="2">
         <v>2031</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>1712.85</v>
+      </c>
+      <c r="D64">
+        <v>1715</v>
+      </c>
+      <c r="E64">
+        <v>1705.5</v>
+      </c>
+      <c r="F64">
+        <v>1708.6</v>
+      </c>
+      <c r="G64">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>122</v>
       </c>
       <c r="B65" s="2">
         <v>4067</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>1712.85</v>
+      </c>
+      <c r="D65">
+        <v>1715</v>
+      </c>
+      <c r="E65">
+        <v>1705.5</v>
+      </c>
+      <c r="F65">
+        <v>1708.6</v>
+      </c>
+      <c r="G65">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>123</v>
       </c>
       <c r="B66" s="2">
         <v>10999</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>1712.85</v>
+      </c>
+      <c r="D66">
+        <v>1715</v>
+      </c>
+      <c r="E66">
+        <v>1705.5</v>
+      </c>
+      <c r="F66">
+        <v>1708.6</v>
+      </c>
+      <c r="G66">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>124</v>
       </c>
       <c r="B67" s="2">
         <v>10447</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>1712.85</v>
+      </c>
+      <c r="D67">
+        <v>1715</v>
+      </c>
+      <c r="E67">
+        <v>1705.5</v>
+      </c>
+      <c r="F67">
+        <v>1708.6</v>
+      </c>
+      <c r="G67">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>129</v>
       </c>
       <c r="B68" s="2">
         <v>4204</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>1712.85</v>
+      </c>
+      <c r="D68">
+        <v>1715</v>
+      </c>
+      <c r="E68">
+        <v>1705.5</v>
+      </c>
+      <c r="F68">
+        <v>1708.6</v>
+      </c>
+      <c r="G68">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>130</v>
       </c>
       <c r="B69" s="2">
         <v>4503</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>1712.85</v>
+      </c>
+      <c r="D69">
+        <v>1715</v>
+      </c>
+      <c r="E69">
+        <v>1705.5</v>
+      </c>
+      <c r="F69">
+        <v>1708.6</v>
+      </c>
+      <c r="G69">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>132</v>
       </c>
       <c r="B70" s="2">
         <v>23650</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>1712.85</v>
+      </c>
+      <c r="D70">
+        <v>1715</v>
+      </c>
+      <c r="E70">
+        <v>1705.5</v>
+      </c>
+      <c r="F70">
+        <v>1708.6</v>
+      </c>
+      <c r="G70">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>134</v>
       </c>
       <c r="B71" s="2">
         <v>13751</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>1712.85</v>
+      </c>
+      <c r="D71">
+        <v>1715</v>
+      </c>
+      <c r="E71">
+        <v>1705.5</v>
+      </c>
+      <c r="F71">
+        <v>1708.6</v>
+      </c>
+      <c r="G71">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>136</v>
       </c>
       <c r="B72" s="2">
         <v>17963</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>1712.85</v>
+      </c>
+      <c r="D72">
+        <v>1715</v>
+      </c>
+      <c r="E72">
+        <v>1705.5</v>
+      </c>
+      <c r="F72">
+        <v>1708.6</v>
+      </c>
+      <c r="G72">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>138</v>
       </c>
       <c r="B73" s="2">
         <v>11630</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>1712.85</v>
+      </c>
+      <c r="D73">
+        <v>1715</v>
+      </c>
+      <c r="E73">
+        <v>1705.5</v>
+      </c>
+      <c r="F73">
+        <v>1708.6</v>
+      </c>
+      <c r="G73">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>668</v>
       </c>
       <c r="B74" s="2">
         <v>6545</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>1712.85</v>
+      </c>
+      <c r="D74">
+        <v>1715</v>
+      </c>
+      <c r="E74">
+        <v>1705.5</v>
+      </c>
+      <c r="F74">
+        <v>1708.6</v>
+      </c>
+      <c r="G74">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>141</v>
       </c>
       <c r="B75" s="2">
         <v>2475</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>12410</v>
+      </c>
+      <c r="D75">
+        <v>12490</v>
+      </c>
+      <c r="E75">
+        <v>12378</v>
+      </c>
+      <c r="F75">
+        <v>12467.5</v>
+      </c>
+      <c r="G75">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>967</v>
       </c>
       <c r="B76" s="2">
         <v>6705</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>1742</v>
+      </c>
+      <c r="D76">
+        <v>1747.6</v>
+      </c>
+      <c r="E76">
+        <v>1739.3</v>
+      </c>
+      <c r="F76">
+        <v>1747.2</v>
+      </c>
+      <c r="G76">
+        <v>8428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1223</v>
       </c>
       <c r="B77" s="2">
         <v>2535</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>2245</v>
+      </c>
+      <c r="D77">
+        <v>2247.5500000000002</v>
+      </c>
+      <c r="E77">
+        <v>2239</v>
+      </c>
+      <c r="F77">
+        <v>2241.1</v>
+      </c>
+      <c r="G77">
+        <v>8097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>147</v>
       </c>
       <c r="B78" s="2">
         <v>2664</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>157.58000000000001</v>
+      </c>
+      <c r="D78">
+        <v>158.81</v>
+      </c>
+      <c r="E78">
+        <v>157.13</v>
+      </c>
+      <c r="F78">
+        <v>158.74</v>
+      </c>
+      <c r="G78">
+        <v>991806</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>148</v>
       </c>
       <c r="B79" s="2">
         <v>24184</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>1934.95</v>
+      </c>
+      <c r="D79">
+        <v>1937.9</v>
+      </c>
+      <c r="E79">
+        <v>1933.45</v>
+      </c>
+      <c r="F79">
+        <v>1937.55</v>
+      </c>
+      <c r="G79">
+        <v>125470</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>151</v>
       </c>
       <c r="B80" s="2">
         <v>14977</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>984.85</v>
+      </c>
+      <c r="D80">
+        <v>986</v>
+      </c>
+      <c r="E80">
+        <v>983</v>
+      </c>
+      <c r="F80">
+        <v>984</v>
+      </c>
+      <c r="G80">
+        <v>17338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>157</v>
       </c>
       <c r="B81" s="2">
         <v>2885</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>1712.85</v>
+      </c>
+      <c r="D81">
+        <v>1715</v>
+      </c>
+      <c r="E81">
+        <v>1705.5</v>
+      </c>
+      <c r="F81">
+        <v>1708.6</v>
+      </c>
+      <c r="G81">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>159</v>
       </c>
       <c r="B82" s="2">
         <v>17971</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>1712.85</v>
+      </c>
+      <c r="D82">
+        <v>1715</v>
+      </c>
+      <c r="E82">
+        <v>1705.5</v>
+      </c>
+      <c r="F82">
+        <v>1708.6</v>
+      </c>
+      <c r="G82">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>160</v>
       </c>
       <c r="B83" s="2">
         <v>21808</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>1712.85</v>
+      </c>
+      <c r="D83">
+        <v>1715</v>
+      </c>
+      <c r="E83">
+        <v>1705.5</v>
+      </c>
+      <c r="F83">
+        <v>1708.6</v>
+      </c>
+      <c r="G83">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>161</v>
       </c>
       <c r="B84" s="2">
         <v>3045</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>1712.85</v>
+      </c>
+      <c r="D84">
+        <v>1715</v>
+      </c>
+      <c r="E84">
+        <v>1705.5</v>
+      </c>
+      <c r="F84">
+        <v>1708.6</v>
+      </c>
+      <c r="G84">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>162</v>
       </c>
       <c r="B85" s="2">
         <v>3103</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>1712.85</v>
+      </c>
+      <c r="D85">
+        <v>1715</v>
+      </c>
+      <c r="E85">
+        <v>1705.5</v>
+      </c>
+      <c r="F85">
+        <v>1708.6</v>
+      </c>
+      <c r="G85">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>163</v>
       </c>
       <c r="B86" s="2">
         <v>3150</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>1712.85</v>
+      </c>
+      <c r="D86">
+        <v>1715</v>
+      </c>
+      <c r="E86">
+        <v>1705.5</v>
+      </c>
+      <c r="F86">
+        <v>1708.6</v>
+      </c>
+      <c r="G86">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>164</v>
       </c>
       <c r="B87" s="2">
         <v>3273</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>1712.85</v>
+      </c>
+      <c r="D87">
+        <v>1715</v>
+      </c>
+      <c r="E87">
+        <v>1705.5</v>
+      </c>
+      <c r="F87">
+        <v>1708.6</v>
+      </c>
+      <c r="G87">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>165</v>
       </c>
       <c r="B88" s="2">
         <v>3351</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>1712.85</v>
+      </c>
+      <c r="D88">
+        <v>1715</v>
+      </c>
+      <c r="E88">
+        <v>1705.5</v>
+      </c>
+      <c r="F88">
+        <v>1708.6</v>
+      </c>
+      <c r="G88">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>170</v>
       </c>
       <c r="B89" s="2">
         <v>3432</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>1712.85</v>
+      </c>
+      <c r="D89">
+        <v>1715</v>
+      </c>
+      <c r="E89">
+        <v>1705.5</v>
+      </c>
+      <c r="F89">
+        <v>1708.6</v>
+      </c>
+      <c r="G89">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>171</v>
       </c>
       <c r="B90" s="2">
         <v>3456</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>1712.85</v>
+      </c>
+      <c r="D90">
+        <v>1715</v>
+      </c>
+      <c r="E90">
+        <v>1705.5</v>
+      </c>
+      <c r="F90">
+        <v>1708.6</v>
+      </c>
+      <c r="G90">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>172</v>
       </c>
       <c r="B91" s="2">
         <v>3426</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>1712.85</v>
+      </c>
+      <c r="D91">
+        <v>1715</v>
+      </c>
+      <c r="E91">
+        <v>1705.5</v>
+      </c>
+      <c r="F91">
+        <v>1708.6</v>
+      </c>
+      <c r="G91">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>173</v>
       </c>
       <c r="B92" s="2">
         <v>3499</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>1712.85</v>
+      </c>
+      <c r="D92">
+        <v>1715</v>
+      </c>
+      <c r="E92">
+        <v>1705.5</v>
+      </c>
+      <c r="F92">
+        <v>1708.6</v>
+      </c>
+      <c r="G92">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>174</v>
       </c>
       <c r="B93" s="2">
         <v>11536</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>1712.85</v>
+      </c>
+      <c r="D93">
+        <v>1715</v>
+      </c>
+      <c r="E93">
+        <v>1705.5</v>
+      </c>
+      <c r="F93">
+        <v>1708.6</v>
+      </c>
+      <c r="G93">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>175</v>
       </c>
       <c r="B94" s="2">
         <v>13538</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>1712.85</v>
+      </c>
+      <c r="D94">
+        <v>1715</v>
+      </c>
+      <c r="E94">
+        <v>1705.5</v>
+      </c>
+      <c r="F94">
+        <v>1708.6</v>
+      </c>
+      <c r="G94">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>176</v>
       </c>
       <c r="B95" s="2">
         <v>3506</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>1712.85</v>
+      </c>
+      <c r="D95">
+        <v>1715</v>
+      </c>
+      <c r="E95">
+        <v>1705.5</v>
+      </c>
+      <c r="F95">
+        <v>1708.6</v>
+      </c>
+      <c r="G95">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>177</v>
       </c>
       <c r="B96" s="2">
         <v>3518</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>1712.85</v>
+      </c>
+      <c r="D96">
+        <v>1715</v>
+      </c>
+      <c r="E96">
+        <v>1705.5</v>
+      </c>
+      <c r="F96">
+        <v>1708.6</v>
+      </c>
+      <c r="G96">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>182</v>
       </c>
       <c r="B97" s="2">
         <v>11532</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>1712.85</v>
+      </c>
+      <c r="D97">
+        <v>1715</v>
+      </c>
+      <c r="E97">
+        <v>1705.5</v>
+      </c>
+      <c r="F97">
+        <v>1708.6</v>
+      </c>
+      <c r="G97">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>183</v>
       </c>
       <c r="B98" s="2">
         <v>11287</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>1712.85</v>
+      </c>
+      <c r="D98">
+        <v>1715</v>
+      </c>
+      <c r="E98">
+        <v>1705.5</v>
+      </c>
+      <c r="F98">
+        <v>1708.6</v>
+      </c>
+      <c r="G98">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>184</v>
       </c>
       <c r="B99" s="2">
         <v>3063</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>1712.85</v>
+      </c>
+      <c r="D99">
+        <v>1715</v>
+      </c>
+      <c r="E99">
+        <v>1705.5</v>
+      </c>
+      <c r="F99">
+        <v>1708.6</v>
+      </c>
+      <c r="G99">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>187</v>
       </c>
       <c r="B100" s="2">
         <v>3787</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>1712.85</v>
+      </c>
+      <c r="D100">
+        <v>1715</v>
+      </c>
+      <c r="E100">
+        <v>1705.5</v>
+      </c>
+      <c r="F100">
+        <v>1708.6</v>
+      </c>
+      <c r="G100">
+        <v>23336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1591</v>
       </c>
       <c r="B101" s="2">
         <v>5097</v>
+      </c>
+      <c r="C101">
+        <v>1712.85</v>
+      </c>
+      <c r="D101">
+        <v>1715</v>
+      </c>
+      <c r="E101">
+        <v>1705.5</v>
+      </c>
+      <c r="F101">
+        <v>1708.6</v>
+      </c>
+      <c r="G101">
+        <v>23336</v>
       </c>
     </row>
   </sheetData>

--- a/python-codes/trading/angel_broking/text-documents/fo_mktlots.xlsx
+++ b/python-codes/trading/angel_broking/text-documents/fo_mktlots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs_code\visualstudiocodes.github.io-1\python-codes\trading\angel_broking\text-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3069FDD1-6337-4880-9BE5-EE5233E0C155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB073D2-2DF5-4973-8ADC-F50A1811CB51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26887,8 +26887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E134EA68-A784-4621-AD5E-2163510EAC77}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26927,19 +26927,19 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D2">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E2">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F2">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G2">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -26950,19 +26950,19 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D3">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E3">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F3">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G3">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -26973,19 +26973,19 @@
         <v>3563</v>
       </c>
       <c r="C4">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D4">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E4">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F4">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G4">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -26996,19 +26996,19 @@
         <v>15083</v>
       </c>
       <c r="C5">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D5">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E5">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F5">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G5">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -27019,19 +27019,19 @@
         <v>10217</v>
       </c>
       <c r="C6">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D6">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E6">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F6">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G6">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -27042,19 +27042,19 @@
         <v>1270</v>
       </c>
       <c r="C7">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D7">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E7">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F7">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G7">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -27065,19 +27065,19 @@
         <v>157</v>
       </c>
       <c r="C8">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D8">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E8">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F8">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G8">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -27088,19 +27088,19 @@
         <v>236</v>
       </c>
       <c r="C9">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D9">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E9">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F9">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G9">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -27111,19 +27111,19 @@
         <v>6066</v>
       </c>
       <c r="C10">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D10">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E10">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F10">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G10">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -27134,19 +27134,19 @@
         <v>5900</v>
       </c>
       <c r="C11">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D11">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E11">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F11">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G11">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -27157,19 +27157,19 @@
         <v>16669</v>
       </c>
       <c r="C12">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D12">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E12">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F12">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G12">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -27180,19 +27180,19 @@
         <v>16675</v>
       </c>
       <c r="C13">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D13">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E13">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F13">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G13">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -27203,19 +27203,19 @@
         <v>305</v>
       </c>
       <c r="C14">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D14">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E14">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F14">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G14">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -27226,19 +27226,19 @@
         <v>317</v>
       </c>
       <c r="C15">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D15">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E15">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F15">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G15">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -27249,19 +27249,19 @@
         <v>2263</v>
       </c>
       <c r="C16">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D16">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E16">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F16">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G16">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -27272,19 +27272,19 @@
         <v>4668</v>
       </c>
       <c r="C17">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D17">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E17">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F17">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G17">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -27295,19 +27295,19 @@
         <v>383</v>
       </c>
       <c r="C18">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D18">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E18">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F18">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G18">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -27318,19 +27318,19 @@
         <v>404</v>
       </c>
       <c r="C19">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D19">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E19">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F19">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G19">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -27341,19 +27341,19 @@
         <v>10604</v>
       </c>
       <c r="C20">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D20">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E20">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F20">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G20">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -27364,19 +27364,19 @@
         <v>11373</v>
       </c>
       <c r="C21">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D21">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E21">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F21">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G21">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -27387,19 +27387,19 @@
         <v>2181</v>
       </c>
       <c r="C22">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D22">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E22">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F22">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G22">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -27410,19 +27410,19 @@
         <v>526</v>
       </c>
       <c r="C23">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D23">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E23">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F23">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G23">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -27433,19 +27433,19 @@
         <v>547</v>
       </c>
       <c r="C24">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D24">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E24">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F24">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G24">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -27456,19 +27456,19 @@
         <v>685</v>
       </c>
       <c r="C25">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D25">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E25">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F25">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G25">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -27479,19 +27479,19 @@
         <v>694</v>
       </c>
       <c r="C26">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D26">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E26">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F26">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G26">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -27502,19 +27502,19 @@
         <v>20374</v>
       </c>
       <c r="C27">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D27">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E27">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F27">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G27">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -27525,19 +27525,19 @@
         <v>15141</v>
       </c>
       <c r="C28">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D28">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E28">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F28">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G28">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -27548,19 +27548,19 @@
         <v>772</v>
       </c>
       <c r="C29">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D29">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E29">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F29">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G29">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -27571,19 +27571,19 @@
         <v>10940</v>
       </c>
       <c r="C30">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D30">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E30">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F30">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G30">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -27594,19 +27594,19 @@
         <v>14732</v>
       </c>
       <c r="C31">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D31">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E31">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F31">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G31">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -27617,19 +27617,19 @@
         <v>19913</v>
       </c>
       <c r="C32">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D32">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E32">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F32">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G32">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -27640,19 +27640,19 @@
         <v>881</v>
       </c>
       <c r="C33">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D33">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E33">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F33">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G33">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -27663,19 +27663,19 @@
         <v>910</v>
       </c>
       <c r="C34">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D34">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E34">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F34">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G34">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -27686,19 +27686,19 @@
         <v>4717</v>
       </c>
       <c r="C35">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D35">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E35">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F35">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G35">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -27709,19 +27709,19 @@
         <v>1153</v>
       </c>
       <c r="C36">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D36">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E36">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F36">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G36">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -27732,19 +27732,19 @@
         <v>10099</v>
       </c>
       <c r="C37">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D37">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E37">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F37">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G37">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -27755,19 +27755,19 @@
         <v>1232</v>
       </c>
       <c r="C38">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D38">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E38">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F38">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G38">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -27778,19 +27778,19 @@
         <v>2303</v>
       </c>
       <c r="C39">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D39">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E39">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F39">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G39">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -27801,19 +27801,19 @@
         <v>9819</v>
       </c>
       <c r="C40">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D40">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E40">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F40">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G40">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -27824,19 +27824,19 @@
         <v>7229</v>
       </c>
       <c r="C41">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D41">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E41">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F41">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G41">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -27847,19 +27847,19 @@
         <v>1330</v>
       </c>
       <c r="C42">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D42">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E42">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F42">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G42">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -27870,19 +27870,19 @@
         <v>4244</v>
       </c>
       <c r="C43">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D43">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E43">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F43">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G43">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -27893,19 +27893,19 @@
         <v>1333</v>
       </c>
       <c r="C44">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D44">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E44">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F44">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G44">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -27916,19 +27916,19 @@
         <v>467</v>
       </c>
       <c r="C45">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D45">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E45">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F45">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G45">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -27939,19 +27939,19 @@
         <v>1348</v>
       </c>
       <c r="C46">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D46">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E46">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F46">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G46">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -27962,19 +27962,19 @@
         <v>1363</v>
       </c>
       <c r="C47">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D47">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E47">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F47">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G47">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -27985,19 +27985,19 @@
         <v>1394</v>
       </c>
       <c r="C48">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D48">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E48">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F48">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G48">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -28008,19 +28008,19 @@
         <v>4963</v>
       </c>
       <c r="C49">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D49">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E49">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F49">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G49">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -28031,19 +28031,19 @@
         <v>21770</v>
       </c>
       <c r="C50">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D50">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E50">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F50">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G50">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -28054,19 +28054,19 @@
         <v>18652</v>
       </c>
       <c r="C51">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D51">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E51">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F51">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G51">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -28077,19 +28077,19 @@
         <v>11195</v>
       </c>
       <c r="C52">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D52">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E52">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F52">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G52">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -28100,19 +28100,19 @@
         <v>5258</v>
       </c>
       <c r="C53">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D53">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E53">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F53">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G53">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -28123,19 +28123,19 @@
         <v>29135</v>
       </c>
       <c r="C54">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D54">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E54">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F54">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G54">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -28146,19 +28146,19 @@
         <v>1594</v>
       </c>
       <c r="C55">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D55">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E55">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F55">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G55">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -28169,19 +28169,19 @@
         <v>1624</v>
       </c>
       <c r="C56">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D56">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E56">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F56">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G56">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -28192,19 +28192,19 @@
         <v>13611</v>
       </c>
       <c r="C57">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D57">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E57">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F57">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G57">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -28215,19 +28215,19 @@
         <v>1660</v>
       </c>
       <c r="C58">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D58">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E58">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F58">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G58">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -28238,19 +28238,19 @@
         <v>11723</v>
       </c>
       <c r="C59">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D59">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E59">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F59">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G59">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -28261,19 +28261,19 @@
         <v>1922</v>
       </c>
       <c r="C60">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D60">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E60">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F60">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G60">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -28284,19 +28284,19 @@
         <v>9480</v>
       </c>
       <c r="C61">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D61">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E61">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F61">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G61">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -28307,19 +28307,19 @@
         <v>11483</v>
       </c>
       <c r="C62">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D62">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E62">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F62">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G62">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -28330,19 +28330,19 @@
         <v>17818</v>
       </c>
       <c r="C63">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D63">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E63">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F63">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G63">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -28353,19 +28353,19 @@
         <v>2031</v>
       </c>
       <c r="C64">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D64">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E64">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F64">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G64">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -28376,19 +28376,19 @@
         <v>4067</v>
       </c>
       <c r="C65">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D65">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E65">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F65">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G65">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -28399,19 +28399,19 @@
         <v>10999</v>
       </c>
       <c r="C66">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D66">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E66">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F66">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G66">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -28422,19 +28422,19 @@
         <v>10447</v>
       </c>
       <c r="C67">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D67">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E67">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F67">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G67">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -28445,19 +28445,19 @@
         <v>4204</v>
       </c>
       <c r="C68">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D68">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E68">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F68">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G68">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -28468,19 +28468,19 @@
         <v>4503</v>
       </c>
       <c r="C69">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D69">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E69">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F69">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G69">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -28491,19 +28491,19 @@
         <v>23650</v>
       </c>
       <c r="C70">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D70">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E70">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F70">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G70">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -28514,19 +28514,19 @@
         <v>13751</v>
       </c>
       <c r="C71">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D71">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E71">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F71">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G71">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -28537,19 +28537,19 @@
         <v>17963</v>
       </c>
       <c r="C72">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D72">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E72">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F72">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G72">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -28560,19 +28560,19 @@
         <v>11630</v>
       </c>
       <c r="C73">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D73">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E73">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F73">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G73">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -28583,19 +28583,19 @@
         <v>6545</v>
       </c>
       <c r="C74">
-        <v>1712.85</v>
+        <v>405.9</v>
       </c>
       <c r="D74">
-        <v>1715</v>
+        <v>406.1</v>
       </c>
       <c r="E74">
-        <v>1705.5</v>
+        <v>402.6</v>
       </c>
       <c r="F74">
-        <v>1708.6</v>
+        <v>403.35</v>
       </c>
       <c r="G74">
-        <v>23336</v>
+        <v>2681900</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
